--- a/08.汇报机制/2.汇报机制/1.日清/QDCH_daily_20170916.xlsx
+++ b/08.汇报机制/2.汇报机制/1.日清/QDCH_daily_20170916.xlsx
@@ -477,40 +477,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需要与业务用户进行沟通，确认云清分析内容</t>
-    <rPh sb="0" eb="1">
-      <t>xu'yao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ye'wu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jin'xing</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>gou'tong</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>que'ren</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yun'qing</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>fen'xi</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>nei'rong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.风险发现：项目需求可能存在变更</t>
     <rPh sb="2" eb="3">
       <t>feng'xian</t>
@@ -549,6 +515,40 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>tui'jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要与业务用户进行沟通，确认舆情分析内容</t>
+    <rPh sb="0" eb="1">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jin'xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gou'tong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yu'qing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fen'xi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>nei'rong</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -987,7 +987,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1123,7 +1123,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.2">
@@ -1137,16 +1137,16 @@
         <v>0.5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">

--- a/08.汇报机制/2.汇报机制/1.日清/QDCH_daily_20170916.xlsx
+++ b/08.汇报机制/2.汇报机制/1.日清/QDCH_daily_20170916.xlsx
@@ -661,23 +661,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -987,7 +987,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1045,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -1068,7 +1068,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
@@ -1091,7 +1091,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
@@ -1101,20 +1101,20 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="13">
         <v>42994</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
@@ -1127,25 +1127,25 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>0.5</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
         <v>24</v>
       </c>
     </row>
